--- a/lib/tasks/TaskSampleSheet.xlsx
+++ b/lib/tasks/TaskSampleSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UsersData2" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -29,15 +29,21 @@
     <t xml:space="preserve">last_name</t>
   </si>
   <si>
-    <t xml:space="preserve">email</t>
+    <t xml:space="preserve">email_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cxfvbc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fvgcv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ghj@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Sample</t>
   </si>
   <si>
-    <t xml:space="preserve">fgdg</t>
-  </si>
-  <si>
     <t xml:space="preserve">User2</t>
   </si>
   <si>
@@ -50,7 +56,7 @@
     <t xml:space="preserve">User</t>
   </si>
   <si>
-    <t xml:space="preserve">randomuser@yopmail.com</t>
+    <t xml:space="preserve">dfg@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">randomuser2@yopmail.com</t>
@@ -62,7 +68,7 @@
     <t xml:space="preserve">User7</t>
   </si>
   <si>
-    <t xml:space="preserve">sadhna@yopmail.xcom</t>
+    <t xml:space="preserve">fgg@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Sample2</t>
@@ -215,11 +221,11 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
@@ -237,53 +243,56 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="sampleuser2@yopmail.com"/>
-    <hyperlink ref="C4" r:id="rId2" display="randomuser@yopmail.com"/>
-    <hyperlink ref="C5" r:id="rId3" display="randomuser2@yopmail.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="ghj@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId2" display="sampleuser2@yopmail.com"/>
+    <hyperlink ref="C4" r:id="rId3" display="dfg@gmail.com"/>
+    <hyperlink ref="C5" r:id="rId4" display="randomuser2@yopmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -302,8 +311,8 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -322,51 +331,51 @@
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="sadhna@yopmail.xcom"/>
+    <hyperlink ref="C2" r:id="rId1" display="fgg@gmail.com"/>
     <hyperlink ref="C3" r:id="rId2" display="ok@yopmail.com"/>
     <hyperlink ref="C4" r:id="rId3" display="pl@yopmail.com"/>
     <hyperlink ref="C5" r:id="rId4" display="okl@yopmail.com"/>
